--- a/medicine/Sexualité et sexologie/Musée_de_l'érotisme/Musée_de_l'érotisme.xlsx
+++ b/medicine/Sexualité et sexologie/Musée_de_l'érotisme/Musée_de_l'érotisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
+          <t>Musée_de_l'érotisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un musée de l'érotisme est un musée consacré à l'expression de l'érotisme sous forme artistique. Différentes formes d'arts peuvent y être représentées, notamment la peinture et la sculpture. On peut aussi y trouver des jouets sexuels et des documents concernant l'histoire de l'érotisme. La part consacrée au fétichisme varie grandement d'un musée à l'autre. Certains de ces musées sont appelés musées du sexe (comme à New York, à Bombay et en Chine). 
 Au Japon, ils s'appellent souvent musées des trésors secrets (hiho kan). Ils étaient normalement fondés dans les villes d'eaux thermales et populaires dans les années 1970, mais beaucoup ont été fermés jusqu'aux années 1980 en raison de la décroissance des voyages domestiques en groupe et du changement du goût de la population. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
+          <t>Musée_de_l'érotisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amériques
-Hollywood (ouvert en 2004).
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hollywood (ouvert en 2004).
 New York (ouvert en 2002).
-World Erotic Art Museum, Miami.
-Asie-Pacifique
-Bombay (ouvert en 2002).
+World Erotic Art Museum, Miami.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Musée_de_l'érotisme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste par continent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Asie-Pacifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bombay (ouvert en 2002).
 Séoul (ouvert en 2003).
 Shanghai (ouvert en 1999, déplacé en banlieue en 2001 puis en 2004 à Tongli).
 Atami.
 Nikko.
 Kinugawa.
-Ikaho.
-Europe
-Amsterdam (deux musées dont l'un ouvert en 1985, le plus ancien des musées de l'érotisme).
+Ikaho.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musée_de_l'érotisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par continent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amsterdam (deux musées dont l'un ouvert en 1985, le plus ancien des musées de l'érotisme).
 Barcelone (ouvert en 1996).
 Bruxelles (ouvert en 2012).
 Copenhague (ouvert en 1993).
@@ -542,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Musée_de_l'érotisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_l%27%C3%A9rotisme</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prague abrite le SexMachinesMuseum qui présente une grande collection de jouets érotiques. Il ne s'agit cependant pas vraiment d'un musée de l'érotisme et semble plutôt tourné vers la pornographie.
 Un musée de l'érotisme ouvert à Canberra en 2001 a fermé en 2003.
